--- a/MM1-Software 10-01-2025/MM1-Software/build/workbook.xlsx
+++ b/MM1-Software 10-01-2025/MM1-Software/build/workbook.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S170"/>
+  <dimension ref="A1:S175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10324,6 +10324,296 @@
         </is>
       </c>
     </row>
+    <row r="171">
+      <c r="B171" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="C171" t="n">
+        <v>3.493333333333333</v>
+      </c>
+      <c r="D171" t="n">
+        <v>231.502934</v>
+      </c>
+      <c r="E171" t="n">
+        <v>4.319599681617858</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1210.263496844784</v>
+      </c>
+      <c r="G171" t="n">
+        <v>667.3472508706803</v>
+      </c>
+      <c r="H171" t="n">
+        <v>675.865624</v>
+      </c>
+      <c r="I171" t="n">
+        <v>115.1777989080123</v>
+      </c>
+      <c r="K171" t="n">
+        <v>80.87169161066666</v>
+      </c>
+      <c r="L171" t="n">
+        <v>82.11304555211066</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="O171" t="n">
+        <v>10</v>
+      </c>
+      <c r="P171" t="n">
+        <v>231.347017</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>1100000</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>2.89510638297872340425</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>1768.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C172" t="n">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="D172" t="n">
+        <v>231.206243</v>
+      </c>
+      <c r="E172" t="n">
+        <v>4.325142725492927</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2033.30805784103</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1199.058805741663</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1195.566648</v>
+      </c>
+      <c r="I172" t="n">
+        <v>116.0303336738517</v>
+      </c>
+      <c r="K172" t="n">
+        <v>88.62905981666668</v>
+      </c>
+      <c r="L172" t="n">
+        <v>88.08954575092372</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="O172" t="n">
+        <v>25</v>
+      </c>
+      <c r="P172" t="n">
+        <v>231.084219</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>1100000</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>2.13213114754098360655</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>1300.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C173" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="D173" t="n">
+        <v>230.79483</v>
+      </c>
+      <c r="E173" t="n">
+        <v>4.332852689984433</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2160.514612183918</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1069.750753081166</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1087.163411</v>
+      </c>
+      <c r="I173" t="n">
+        <v>116.106004153179</v>
+      </c>
+      <c r="K173" t="n">
+        <v>89.31759921000001</v>
+      </c>
+      <c r="L173" t="n">
+        <v>88.3745963401507</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="O173" t="n">
+        <v>19</v>
+      </c>
+      <c r="P173" t="n">
+        <v>230.612514</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>1100000</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>4.26780687397708674304</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>2607.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C174" t="n">
+        <v>3.791666666666667</v>
+      </c>
+      <c r="D174" t="n">
+        <v>230.943847</v>
+      </c>
+      <c r="E174" t="n">
+        <v>4.33005690772961</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1857.388792979793</v>
+      </c>
+      <c r="G174" t="n">
+        <v>945.4171405390917</v>
+      </c>
+      <c r="H174" t="n">
+        <v>961.773827</v>
+      </c>
+      <c r="I174" t="n">
+        <v>115.9135263310929</v>
+      </c>
+      <c r="K174" t="n">
+        <v>87.56620865416666</v>
+      </c>
+      <c r="L174" t="n">
+        <v>86.96989672599429</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="O174" t="n">
+        <v>18</v>
+      </c>
+      <c r="P174" t="n">
+        <v>230.754467</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>1100000</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>4.01300000000000000000</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>2447.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C175" t="n">
+        <v>3.821666666666667</v>
+      </c>
+      <c r="D175" t="n">
+        <v>231.240033</v>
+      </c>
+      <c r="E175" t="n">
+        <v>4.324510713073631</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1988.688157183976</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1082.202865547232</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1086.778494</v>
+      </c>
+      <c r="I175" t="n">
+        <v>116.0021083640038</v>
+      </c>
+      <c r="K175" t="n">
+        <v>88.3722326115</v>
+      </c>
+      <c r="L175" t="n">
+        <v>88.00959232613909</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="O175" t="n">
+        <v>20</v>
+      </c>
+      <c r="P175" t="n">
+        <v>231.034117</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>1100000</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>3.58688524590163934426</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>2188.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
